--- a/biology/Botanique/Acide_anacardique/Acide_anacardique.xlsx
+++ b/biology/Botanique/Acide_anacardique/Acide_anacardique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acide anacardique est un composé présent dans les noix de cajou ; mais également dans l'écorce de l'anacardier[1].
-Ce composé a un effet antibactérien[2] et aide à lutter contre les caries dentaires[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acide anacardique est un composé présent dans les noix de cajou ; mais également dans l'écorce de l'anacardier.
+Ce composé a un effet antibactérien et aide à lutter contre les caries dentaires,.
 L’acide anacardique est un liquide jaune. Il est partiellement miscible avec l’éthanol et l’éther, mais pratiquement non miscible avec l’eau.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Sources d'acides anacardiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'huile tirée des graines de l'arbre tropical Knema elegans (Myristicaceae) contient également des acides anacardiques[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile tirée des graines de l'arbre tropical Knema elegans (Myristicaceae) contient également des acides anacardiques
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première analyse chimique de l'huile de la coquille de noix de cajou de l'Anacardium occidentale a été publiée en 1847[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première analyse chimique de l'huile de la coquille de noix de cajou de l'Anacardium occidentale a été publiée en 1847. 
 </t>
         </is>
       </c>
